--- a/klin-gantt-chart.xlsx
+++ b/klin-gantt-chart.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\Antigravity\klin-gantt-chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFCE88-D31A-486B-9A60-68A59C2C1698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6352FF9-9EC7-4C4A-944B-54DA372407C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -119,6 +120,143 @@
         <a:xfrm>
           <a:off x="0" y="200025"/>
           <a:ext cx="18147658" cy="3115110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>469258</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98965B47-ADCE-3502-7ACD-83EF5260AB8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="18147658" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>316836</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808BFD45-88B4-6C38-615E-EC1DF4D8C729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5600700"/>
+          <a:ext cx="17995236" cy="5068007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>440679</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>181587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62270E-8B1C-EC10-8422-7D162A03D824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11201400"/>
+          <a:ext cx="18119079" cy="4382112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -395,8 +533,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C70CA7-3132-4C2F-A172-7EAA4B210F23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/klin-gantt-chart.xlsx
+++ b/klin-gantt-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\Antigravity\klin-gantt-chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6352FF9-9EC7-4C4A-944B-54DA372407C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EA5974-375B-48D8-A193-CF7E052FA601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,6 +265,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>258998</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>67550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B1DB1C-4761-E6FC-2E9A-E585BD847A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16202025"/>
+          <a:ext cx="13060598" cy="6268325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>574047</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>19779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3074F6-51EC-AEB6-6595-0EF3F3C24D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23002875"/>
+          <a:ext cx="18252447" cy="5220429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>69224</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>29793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACE9730-1FA6-A9BD-D963-46B596DDA098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="29108400"/>
+          <a:ext cx="18261974" cy="8726118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>554995</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>124792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2B3E0E-94C5-EEAC-56E4-E51163D89078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="38404800"/>
+          <a:ext cx="18233395" cy="6925642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -534,7 +710,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C70CA7-3132-4C2F-A172-7EAA4B210F23}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
